--- a/.docs/Партнёрский iframe.xlsx
+++ b/.docs/Партнёрский iframe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>976 (100%)</t>
   </si>
@@ -33,12 +33,33 @@
 +14
 =302</t>
   </si>
+  <si>
+    <t>Breakpoints</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>cols</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Колич. строк, не увеличивающих высоту фрейма (по одному блоку в строке):</t>
+  </si>
+  <si>
+    <t>Высота 1 строки:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +88,22 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -180,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,6 +273,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,13 +410,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>177280</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>84210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>3313</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>43291</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -386,8 +426,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="539230" y="4856235"/>
-          <a:ext cx="6884058" cy="2245081"/>
+          <a:off x="539230" y="8456685"/>
+          <a:ext cx="7312683" cy="2245081"/>
           <a:chOff x="538370" y="372717"/>
           <a:chExt cx="6568108" cy="2024269"/>
         </a:xfrm>
@@ -465,13 +505,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>173935</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>160187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>180943</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>119268</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -481,8 +521,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="535885" y="7599212"/>
-          <a:ext cx="6884058" cy="2245081"/>
+          <a:off x="535885" y="11199662"/>
+          <a:ext cx="7312683" cy="2245081"/>
           <a:chOff x="538370" y="372717"/>
           <a:chExt cx="6568108" cy="2024269"/>
         </a:xfrm>
@@ -560,13 +600,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>173935</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>1242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>3313</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>128793</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -576,8 +616,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="535885" y="10297767"/>
-          <a:ext cx="6887403" cy="6985551"/>
+          <a:off x="535885" y="13898217"/>
+          <a:ext cx="7316028" cy="6985551"/>
           <a:chOff x="532523" y="563217"/>
           <a:chExt cx="6463261" cy="6985551"/>
         </a:xfrm>
@@ -829,13 +869,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2485</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>1242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>12838</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>128793</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -845,8 +885,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="545410" y="17727267"/>
-          <a:ext cx="6887403" cy="6985551"/>
+          <a:off x="545410" y="21327717"/>
+          <a:ext cx="7316028" cy="6985551"/>
           <a:chOff x="532523" y="563217"/>
           <a:chExt cx="6463261" cy="6985551"/>
         </a:xfrm>
@@ -1360,13 +1400,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:BA22"/>
+  <dimension ref="C1:BA30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX24" sqref="AX24"/>
+      <selection activeCell="AJ30" sqref="AJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="21" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C1" s="22">
@@ -2389,8 +2434,152 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
     </row>
+    <row r="24" spans="3:45" s="23" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C24" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB26">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="3:45" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+    </row>
+    <row r="28" spans="3:45" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G28" s="24">
+        <v>3</v>
+      </c>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24">
+        <v>9</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24">
+        <v>2800</v>
+      </c>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+    </row>
+    <row r="29" spans="3:45" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="24">
+        <v>940</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24">
+        <v>2</v>
+      </c>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24">
+        <f>(9-AB25)*2+AB25</f>
+        <v>15</v>
+      </c>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24">
+        <f>K29*AB26</f>
+        <v>4665</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="AB29">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="30" spans="3:45" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="24">
+        <v>620</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24">
+        <f>(9-AB25)*3+AB25</f>
+        <v>21</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24">
+        <f>K30*AB26</f>
+        <v>6531</v>
+      </c>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="AB30">
+        <v>6240</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="23">
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G28:J28"/>
     <mergeCell ref="D21:AO22"/>
     <mergeCell ref="AQ1:AS22"/>
     <mergeCell ref="D5:O6"/>
